--- a/SwingData/Data/ParticipantList_DeIdentify.xlsx
+++ b/SwingData/Data/ParticipantList_DeIdentify.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{0F399EDE-F326-4374-86F0-686B16304BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FAD72FB-0A9F-4910-AB50-F1E80ADD751A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBCAD2F-627C-49C1-AF1B-CD8758679446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5130" windowWidth="29040" windowHeight="15840" xr2:uid="{349A1965-CFC9-42A8-9FAF-E5946991FC45}"/>
+    <workbookView xWindow="-16320" yWindow="-3360" windowWidth="16440" windowHeight="28320" xr2:uid="{349A1965-CFC9-42A8-9FAF-E5946991FC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
-    <sheet name="Marker Set" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Participant</t>
   </si>
@@ -93,222 +92,6 @@
   </si>
   <si>
     <t>Weight (kg)</t>
-  </si>
-  <si>
-    <t>Segments</t>
-  </si>
-  <si>
-    <t># of Markers</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Trunk</t>
-  </si>
-  <si>
-    <t>Hips</t>
-  </si>
-  <si>
-    <t>L Upper Arm</t>
-  </si>
-  <si>
-    <t>R Upper Arm</t>
-  </si>
-  <si>
-    <t>L Hand</t>
-  </si>
-  <si>
-    <t>L Fore Arm</t>
-  </si>
-  <si>
-    <t>L Thigh</t>
-  </si>
-  <si>
-    <t>R Fore Arm</t>
-  </si>
-  <si>
-    <t>R Hand</t>
-  </si>
-  <si>
-    <t>L Foot</t>
-  </si>
-  <si>
-    <t>L Shank</t>
-  </si>
-  <si>
-    <t>R Thigh</t>
-  </si>
-  <si>
-    <t>R Shank</t>
-  </si>
-  <si>
-    <t>R Foot</t>
-  </si>
-  <si>
-    <t>Marker Names</t>
-  </si>
-  <si>
-    <t>LFHD</t>
-  </si>
-  <si>
-    <t>RFHD</t>
-  </si>
-  <si>
-    <t>LBHD</t>
-  </si>
-  <si>
-    <t>RBHD</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>T10</t>
-  </si>
-  <si>
-    <t>CLAV</t>
-  </si>
-  <si>
-    <t>STRN</t>
-  </si>
-  <si>
-    <t>RBAK</t>
-  </si>
-  <si>
-    <t>LSHO</t>
-  </si>
-  <si>
-    <t>LUPA</t>
-  </si>
-  <si>
-    <t>LUPB</t>
-  </si>
-  <si>
-    <t>LUPC</t>
-  </si>
-  <si>
-    <t>LELB</t>
-  </si>
-  <si>
-    <t>LFRM</t>
-  </si>
-  <si>
-    <t>LMED</t>
-  </si>
-  <si>
-    <t>LWRA</t>
-  </si>
-  <si>
-    <t>LWRB</t>
-  </si>
-  <si>
-    <t>LFIN</t>
-  </si>
-  <si>
-    <t>LASI</t>
-  </si>
-  <si>
-    <t>RASI</t>
-  </si>
-  <si>
-    <t>LPSI</t>
-  </si>
-  <si>
-    <t>RPSI</t>
-  </si>
-  <si>
-    <t>RSHO</t>
-  </si>
-  <si>
-    <t>RUPA</t>
-  </si>
-  <si>
-    <t>RUPB</t>
-  </si>
-  <si>
-    <t>RUPC</t>
-  </si>
-  <si>
-    <t>RMED</t>
-  </si>
-  <si>
-    <t>RFRM</t>
-  </si>
-  <si>
-    <t>RWRA</t>
-  </si>
-  <si>
-    <t>RWRB</t>
-  </si>
-  <si>
-    <t>RFIN</t>
-  </si>
-  <si>
-    <t>LTHI</t>
-  </si>
-  <si>
-    <t>LKNE</t>
-  </si>
-  <si>
-    <t>LKNM</t>
-  </si>
-  <si>
-    <t>LTIB</t>
-  </si>
-  <si>
-    <t>LANK</t>
-  </si>
-  <si>
-    <t>LHEE</t>
-  </si>
-  <si>
-    <t>LTOE</t>
-  </si>
-  <si>
-    <t>LMEP</t>
-  </si>
-  <si>
-    <t>RMEP</t>
-  </si>
-  <si>
-    <t>ECAP</t>
-  </si>
-  <si>
-    <t>KNOB</t>
-  </si>
-  <si>
-    <t>MIDE</t>
-  </si>
-  <si>
-    <t>MIDK</t>
-  </si>
-  <si>
-    <t>RTHI</t>
-  </si>
-  <si>
-    <t>RKNE</t>
-  </si>
-  <si>
-    <t>RKNM</t>
-  </si>
-  <si>
-    <t>RTIB</t>
-  </si>
-  <si>
-    <t>RANK</t>
-  </si>
-  <si>
-    <t>RHEE</t>
-  </si>
-  <si>
-    <t>RTOE</t>
-  </si>
-  <si>
-    <t>Markers are on multiple segments</t>
-  </si>
-  <si>
-    <t>RELB</t>
   </si>
   <si>
     <t>Should Offset (m)</t>
@@ -337,7 +120,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,15 +143,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -378,11 +154,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -404,33 +175,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -749,25 +517,25 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -805,7 +573,7 @@
         <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -814,28 +582,28 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>73.25</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <f>B2*0.0254</f>
         <v>1.8605499999999999</v>
       </c>
       <c r="D2">
         <v>205.7</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <f>D2*0.453592</f>
         <v>93.303874399999998</v>
       </c>
       <c r="F2">
         <v>2.15</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>F2*0.0254</f>
         <v>5.4609999999999999E-2</v>
       </c>
@@ -873,31 +641,31 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>70.875</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <f t="shared" ref="C3:C7" si="0">B3*0.0254</f>
         <v>1.800225</v>
       </c>
       <c r="D3">
         <v>186.8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E7" si="1">D3*0.453592</f>
         <v>84.730985600000011</v>
       </c>
       <c r="F3">
         <v>1.5</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G7" si="2">F3*0.0254</f>
         <v>3.8099999999999995E-2</v>
       </c>
@@ -938,28 +706,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>75</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>1.905</v>
       </c>
       <c r="D4">
         <v>212.2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <f t="shared" si="1"/>
         <v>96.252222399999994</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="4">
         <f t="shared" si="2"/>
         <v>5.0799999999999998E-2</v>
       </c>
@@ -997,31 +765,31 @@
         <v>3</v>
       </c>
       <c r="T4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>72.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>1.8414999999999999</v>
       </c>
       <c r="D5">
         <v>178.9</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <f t="shared" si="1"/>
         <v>81.1476088</v>
       </c>
       <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <f t="shared" si="2"/>
         <v>3.8099999999999995E-2</v>
       </c>
@@ -1062,28 +830,28 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>71</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>1.8033999999999999</v>
       </c>
       <c r="D6">
         <v>193.7</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>87.860770399999993</v>
       </c>
       <c r="F6">
         <v>1.5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <f t="shared" si="2"/>
         <v>3.8099999999999995E-2</v>
       </c>
@@ -1118,28 +886,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>73</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>1.8541999999999998</v>
       </c>
       <c r="D7">
         <v>197</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>89.357624000000001</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
         <v>5.0799999999999998E-2</v>
       </c>
@@ -1174,31 +942,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="9">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8">
         <f>AVERAGE(B2:B7)</f>
         <v>72.604166666666671</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <f t="shared" ref="C9:K9" si="3">AVERAGE(C2:C7)</f>
         <v>1.8441458333333334</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" si="3"/>
         <v>195.71666666666667</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <f t="shared" si="3"/>
         <v>88.775514266666676</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f t="shared" si="3"/>
         <v>1.7750000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <f>AVERAGE(G2:G7)</f>
         <v>4.5084999999999993E-2</v>
       </c>
@@ -1206,46 +974,46 @@
         <f t="shared" si="3"/>
         <v>20.833333333333332</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
         <v>15.166666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:61" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="9">
+        <v>26</v>
+      </c>
+      <c r="B10" s="8">
         <f>_xlfn.STDEV.S(B2:B7)</f>
         <v>1.5419481724969442</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <f t="shared" ref="C10:K10" si="4">_xlfn.STDEV.S(C2:C7)</f>
         <v>3.9165483581422411E-2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" si="4"/>
         <v>12.160496152158697</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <f t="shared" si="4"/>
         <v>5.5159037706499676</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <f t="shared" si="4"/>
         <v>0.30618621784789612</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <f t="shared" si="4"/>
         <v>7.7771299333366135E-3</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="4"/>
         <v>0.98319208025017502</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="4"/>
         <v>2.8577380332470383</v>
       </c>
@@ -1300,73 +1068,73 @@
       <c r="BH10"/>
       <c r="BI10"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="6"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E26" s="6"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E26" s="5"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1375,413 +1143,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF99CBD-0DAA-4759-A928-A8FC07067426}">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C35" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51">
-        <v>4</v>
-      </c>
-      <c r="C51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B55">
-        <f>SUM(B2:B54)</f>
-        <v>53</v>
-      </c>
-      <c r="C55">
-        <f>COUNTA(C2:C54)</f>
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>